--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$81</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="238">
   <si>
     <t>Path</t>
   </si>
@@ -459,6 +459,13 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
+    <t xml:space="preserve">value:resource}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>bdl-5:must be a resource unless there's a request or response {resource.exists() or request.exists() or response.exists()}
 bdl-8:fullUrl cannot be a version specific reference {fullUrl.contains('/_history/').not()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
@@ -723,6 +730,25 @@
   <si>
     <t>For a POST/PUT operation, this is the equivalent outcome that would be returned for prefer = operationoutcome - except that the resource is always returned whether or not the outcome is returned.
 This outcome is not used for error responses in batch/transaction, only for hints and warnings. In a batch operation, the error will be in Bundle.entry.response, and for transaction, there will be a single OperationOutcome instead of a bundle in the case of an error.</t>
+  </si>
+  <si>
+    <t>ddccParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameters {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCGenerateHealthCertificateParameters}
+</t>
+  </si>
+  <si>
+    <t>Operation Request or Response</t>
+  </si>
+  <si>
+    <t>This resource is a non-persisted resource used to pass information into and back from an [operation](http://hl7.org/fhir/R4/operations.html). It has no other use, and there is no RESTful endpoint associated with it.</t>
+  </si>
+  <si>
+    <t>The parameters that may be used are defined by the OperationDefinition resource.</t>
+  </si>
+  <si>
+    <t>POST</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -890,7 +916,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -900,7 +926,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.9609375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2716,7 +2742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>136</v>
       </c>
@@ -2726,13 +2752,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -2786,16 +2812,14 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>136</v>
@@ -2810,7 +2834,7 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>40</v>
@@ -2827,7 +2851,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2936,7 +2960,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3047,7 +3071,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3160,7 +3184,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3186,10 +3210,10 @@
         <v>40</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3240,7 +3264,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3269,7 +3293,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3295,13 +3319,13 @@
         <v>63</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3351,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3380,7 +3404,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3403,13 +3427,13 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3460,7 +3484,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3489,7 +3513,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3515,10 +3539,10 @@
         <v>107</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3569,7 +3593,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3578,7 +3602,7 @@
         <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>61</v>
@@ -3598,7 +3622,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3707,7 +3731,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3818,7 +3842,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3931,7 +3955,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3957,13 +3981,13 @@
         <v>69</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3992,10 +4016,10 @@
         <v>89</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4013,7 +4037,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4042,7 +4066,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4065,16 +4089,16 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4124,7 +4148,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4153,7 +4177,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4179,10 +4203,10 @@
         <v>107</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4233,7 +4257,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4242,7 +4266,7 @@
         <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>61</v>
@@ -4262,7 +4286,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4371,7 +4395,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4482,7 +4506,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4595,7 +4619,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4621,10 +4645,10 @@
         <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4654,10 +4678,10 @@
         <v>89</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -4675,7 +4699,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -4704,7 +4728,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4730,13 +4754,13 @@
         <v>63</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -4786,7 +4810,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -4815,7 +4839,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4841,10 +4865,10 @@
         <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4895,7 +4919,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -4924,7 +4948,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4950,10 +4974,10 @@
         <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5004,7 +5028,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5033,7 +5057,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5059,10 +5083,10 @@
         <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5113,7 +5137,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5142,7 +5166,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5168,10 +5192,10 @@
         <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5222,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5251,7 +5275,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5277,10 +5301,10 @@
         <v>107</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5331,7 +5355,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5340,7 +5364,7 @@
         <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>61</v>
@@ -5360,7 +5384,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5469,7 +5493,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5580,7 +5604,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5693,7 +5717,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5719,10 +5743,10 @@
         <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5773,7 +5797,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -5802,7 +5826,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5828,10 +5852,10 @@
         <v>63</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5882,7 +5906,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -5911,7 +5935,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5937,13 +5961,13 @@
         <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -5993,7 +6017,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6022,7 +6046,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6048,13 +6072,13 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6104,7 +6128,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6133,7 +6157,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6156,16 +6180,16 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6215,7 +6239,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6244,18 +6268,20 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6267,20 +6293,16 @@
         <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6328,35 +6350,3567 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI49" t="s" s="2">
+      <c r="M80" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AJ81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM49">
+  <autoFilter ref="A1:AM81">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6366,7 +9920,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI48">
+  <conditionalFormatting sqref="A2:AI80">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -735,7 +735,7 @@
     <t>ddccParameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/DDCCGenerateHealthCertificateParameters}
+    <t xml:space="preserve">Parameters {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCGenerateHealthCertificateParameters}
 </t>
   </si>
   <si>

--- a/refs/heads/rc2-ddcc/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
+++ b/refs/heads/rc2-ddcc/StructureDefinition-DDCCSubmitHealthEventRequest.xlsx
@@ -735,7 +735,7 @@
     <t>ddccParameters</t>
   </si>
   <si>
-    <t xml:space="preserve">Parameters {https://worldhealthorganization.github.io/ddcc-rcs1/StructureDefinition/DDCCGenerateHealthCertificateParameters}
+    <t xml:space="preserve">Parameters {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCGenerateHealthCertificateParameters}
 </t>
   </si>
   <si>
